--- a/Fase 2/Evidencias Proyecto/Sprint 3/Sprint planning y Backlog 3.xlsx
+++ b/Fase 2/Evidencias Proyecto/Sprint 3/Sprint planning y Backlog 3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
   <si>
     <t>Número</t>
   </si>
@@ -20,64 +20,76 @@
     <t>Historia de usuario</t>
   </si>
   <si>
-    <t>H20</t>
+    <t>E01-H02</t>
+  </si>
+  <si>
+    <t>Como administrador quiero poder asignar roles a los usuarios para limitar su acceso a ciertas funciones del sistema.</t>
+  </si>
+  <si>
+    <t>E04-H13</t>
+  </si>
+  <si>
+    <t>Como usuario quiero saber si existen novedades en la página web para tener conocimiento de alguna publicación q me interese.</t>
+  </si>
+  <si>
+    <t>E04-H14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como administrador quiero poder modificar las nuevas noticias para mantaner informado al usuario de alguna novedad.        </t>
+  </si>
+  <si>
+    <t>E04-H15</t>
+  </si>
+  <si>
+    <t>Como administrador quiero poder gestionar los roles para asegurar el correcto uso del sistema.</t>
+  </si>
+  <si>
+    <t>E05-H16</t>
+  </si>
+  <si>
+    <t>Como administrador quiero poder gestionar los permisos para asegurar el correcto uso del sistema.</t>
+  </si>
+  <si>
+    <t>E05-H17</t>
   </si>
   <si>
     <t>Como administrador, quiero crear usuarios médicos, para poder entregar las credenciales de acceso a los médicos.</t>
   </si>
   <si>
-    <t>H18</t>
-  </si>
-  <si>
-    <t>Como administrador quiero poder gestionar los roles para asegurar el correcto uso del sistema.</t>
-  </si>
-  <si>
-    <t>H19</t>
-  </si>
-  <si>
-    <t>Como administrador quiero poder gestionar los permisos para asegurar el correcto uso del sistema.</t>
-  </si>
-  <si>
-    <t>H02</t>
-  </si>
-  <si>
-    <t>Como administrador quiero poder asignar roles a los usuarios para limitar su acceso a ciertas funciones del sistema.</t>
-  </si>
-  <si>
-    <t>H17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como administrador quiero poder modificar las nuevas noticias para mantaner informado al usuario de alguna novedad.        </t>
-  </si>
-  <si>
-    <t>H16</t>
-  </si>
-  <si>
-    <t>Como usuario quiero saber si existen novedades en la página web para tener conocimiento de alguna publicación q me interese.</t>
-  </si>
-  <si>
-    <t>H21</t>
-  </si>
-  <si>
-    <t>Como usuario quiero poder encontrar fácilmente la información de contacto de la página para poder comunicarse en caso de ser necesario.</t>
-  </si>
-  <si>
-    <t>H22</t>
+    <t>E07-H22</t>
   </si>
   <si>
     <t>Como administrador quiero que la página cuente con un logo, el nombre de la ONG y una sección de inicio de sesión para mejorar la visualización de la página web</t>
   </si>
   <si>
-    <t>H2</t>
-  </si>
-  <si>
     <t>Prioridad</t>
   </si>
   <si>
     <t>Alta</t>
   </si>
   <si>
+    <t>Baja</t>
+  </si>
+  <si>
     <t>Media</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>13 hrs</t>
+  </si>
+  <si>
+    <t>3 hrs</t>
+  </si>
+  <si>
+    <t>5 hrs</t>
+  </si>
+  <si>
+    <t>8 hrs</t>
+  </si>
+  <si>
+    <t>1 hrs</t>
   </si>
 </sst>
 </file>
@@ -165,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -177,21 +189,25 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,7 +454,7 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -450,7 +466,7 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -465,7 +481,7 @@
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3"/>
@@ -474,7 +490,7 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -486,7 +502,7 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -498,7 +514,7 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -509,22 +525,60 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
+      <c r="C14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
+  <mergeCells count="8">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
@@ -532,6 +586,7 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -560,11 +615,11 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -572,11 +627,11 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
+      <c r="A6" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -584,11 +639,11 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
+      <c r="A7" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -596,11 +651,11 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>4</v>
+      <c r="A8" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -608,11 +663,11 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
+      <c r="A9" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -620,11 +675,11 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>2</v>
+      <c r="A10" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -632,7 +687,7 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -643,80 +698,124 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B20" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="B26" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>20</v>
+      <c r="B27" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
+  <mergeCells count="8">
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
@@ -724,6 +823,7 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
